--- a/src/main/java/TestDataPackage/LoginDetails.xlsx
+++ b/src/main/java/TestDataPackage/LoginDetails.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FINCART\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8AD744-5166-4A48-84BC-874EC3A1E4BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2D39BB8C-E7D4-4241-B33C-90FF1910B534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6204" xr2:uid="{73E5473A-9BE1-4081-8FF6-2791C8B8951A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="2796" xr2:uid="{73E5473A-9BE1-4081-8FF6-2791C8B8951A}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
@@ -46,16 +42,27 @@
   </si>
   <si>
     <t>tanwir.alam@fincart.com</t>
+  </si>
+  <si>
+    <t>Fincart@2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,13 +85,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2709B4C0-45AB-4350-A496-7EA9DAF0C20A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,10 +447,11 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
